--- a/MakeMoney/Thong_Ke/xls/Cau_T(2).xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cau_T(2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="6" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="238" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="4" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="508" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="50">
   <si>
     <t>Cau so 10</t>
   </si>
@@ -477,14 +477,14 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.843137254902"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="17.5647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.3686274509804"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="17.7450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -638,43 +638,42 @@
   </sheetPr>
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="W27" activeCellId="0" pane="topLeft" sqref="W27"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="X27" activeCellId="0" pane="topLeft" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.3843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.51764705882353"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.51764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.07450980392157"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.07450980392157"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.3843137254902"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.22745098039216"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.66274509803922"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.3843137254902"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.66274509803922"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.5647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.83529411764706"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.98823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.61176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.2156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.61176470588235"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="4.61176470588235"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="4.9921568627451"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.83529411764706"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.24705882352941"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.7450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1425,8 +1424,11 @@
       <c r="W25" s="0" t="n">
         <v>88</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
+      <c r="X25" s="0" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="26">
       <c r="A26" s="20"/>
       <c r="B26" s="11" t="n">
         <v>6</v>
@@ -1481,10 +1483,12 @@
         <v>0</v>
       </c>
       <c r="V26" s="5"/>
-      <c r="W26" s="5" t="s">
+      <c r="W26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
@@ -1512,43 +1516,41 @@
   </sheetPr>
   <dimension ref="A1:AF62"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A40" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="W64" activeCellId="0" pane="topLeft" sqref="W64"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="X63" activeCellId="0" pane="topLeft" sqref="X63"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.3843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.51764705882353"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.51764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.07450980392157"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.07450980392157"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.3843137254902"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.22745098039216"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.66274509803922"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.3843137254902"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.66274509803922"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.5647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.2156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.98823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.2156862745098"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.55294117647059"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.2156862745098"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.83529411764706"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.96078431372549"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.69803921568627"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.7450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -3288,8 +3290,11 @@
       <c r="V61" s="3" t="n">
         <v>82</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="62">
+      <c r="X61" s="0" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="62">
       <c r="A62" s="20"/>
       <c r="B62" s="19"/>
       <c r="C62" s="5" t="n">
@@ -3333,7 +3338,9 @@
       <c r="W62" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="X62" s="5"/>
+      <c r="X62" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
       <c r="AA62" s="5"/>
@@ -3365,41 +3372,41 @@
   </sheetPr>
   <dimension ref="A1:AF33"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A5" activeCellId="0" pane="topLeft" sqref="A5"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="X33" activeCellId="0" pane="topLeft" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.76862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.36078431372549"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.36078431372549"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="4.36078431372549"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="4.2156862745098"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="4.07843137254902"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="4.36078431372549"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.5647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.82352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.62745098039216"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.49019607843137"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="5.76862745098039"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="5.62745098039216"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="5.62745098039216"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="4.25098039215686"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="4.11372549019608"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.7450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -4386,8 +4393,11 @@
       <c r="W32" s="0" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
+      <c r="X32" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="33">
       <c r="A33" s="20"/>
       <c r="B33" s="5" t="n">
         <v>2</v>
@@ -4434,10 +4444,10 @@
       <c r="V33" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="W33" s="5" t="s">
+      <c r="W33" s="5"/>
+      <c r="X33" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
@@ -4469,43 +4479,41 @@
   </sheetPr>
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="U28" activeCellId="0" pane="topLeft" sqref="U28"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="X27" activeCellId="0" pane="topLeft" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.3843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.51764705882353"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.51764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.07450980392157"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.07450980392157"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.3843137254902"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.22745098039216"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.66274509803922"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.3843137254902"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.66274509803922"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.5647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.05882352941176"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.77647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="5.49019607843137"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="5.49019607843137"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="4.77647058823529"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="4.2156862745098"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.49019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.7450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5279,8 +5287,11 @@
       <c r="W26" s="0" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
+      <c r="X26" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="27">
       <c r="A27" s="20"/>
       <c r="B27" s="6"/>
       <c r="C27" s="5" t="n">
@@ -5329,10 +5340,12 @@
       <c r="V27" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="W27" s="5" t="s">
+      <c r="W27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
@@ -5360,43 +5373,43 @@
   </sheetPr>
   <dimension ref="A1:AF71"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="W71" activeCellId="0" pane="topLeft" sqref="W71"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="X72" activeCellId="0" pane="topLeft" sqref="X72"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.3843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.51764705882353"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.51764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.07450980392157"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.07450980392157"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.3843137254902"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.22745098039216"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.66274509803922"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.3843137254902"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.66274509803922"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.5647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.77647058823529"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.2078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.2156862745098"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.77647058823529"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="5.2078431372549"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="4.36078431372549"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="4.77647058823529"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="4.36078431372549"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.77647058823529"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="4.36078431372549"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="0" width="4.77647058823529"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.7450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -7171,8 +7184,11 @@
       <c r="W70" s="0" t="n">
         <v>21</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
+      <c r="X70" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="71">
       <c r="A71" s="20"/>
       <c r="B71" s="5" t="n">
         <v>1</v>
@@ -7217,10 +7233,12 @@
       <c r="V71" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="W71" s="5" t="s">
+      <c r="W71" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X71" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="5"/>
@@ -7254,43 +7272,44 @@
   </sheetPr>
   <dimension ref="A1:AF68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A37" activeCellId="0" pane="topLeft" sqref="A37"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A43" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="Y68" activeCellId="0" pane="topLeft" sqref="Y68"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.3843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.51764705882353"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.51764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.07450980392157"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.22745098039216"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.66274509803922"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.3843137254902"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.66274509803922"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.5647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.77647058823529"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.36078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.98823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.77647058823529"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="4.77647058823529"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.83529411764706"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.69803921568627"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.2078431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.7450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -8999,8 +9018,11 @@
       <c r="W67" s="0" t="n">
         <v>25</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="68">
+      <c r="X67" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="68">
       <c r="A68" s="20"/>
       <c r="B68" s="11" t="n">
         <v>7</v>
@@ -9041,10 +9063,10 @@
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
       <c r="V68" s="5"/>
-      <c r="W68" s="5" t="s">
+      <c r="W68" s="5"/>
+      <c r="X68" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
       <c r="AA68" s="5"/>
@@ -9077,43 +9099,42 @@
   </sheetPr>
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="V26" activeCellId="0" pane="topLeft" sqref="V26"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="W26" activeCellId="0" pane="topLeft" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.3843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.51764705882353"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.51764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.07450980392157"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.07450980392157"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.3843137254902"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.22745098039216"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.66274509803922"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.3843137254902"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.66274509803922"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.5647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.9921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.98823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.61176470588235"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.2156862745098"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.9921568627451"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.9921568627451"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.61176470588235"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="0" width="4.2156862745098"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="4.61176470588235"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.7450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -9862,8 +9883,11 @@
       <c r="V24" s="3" t="n">
         <v>44</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
+      <c r="W24" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="25">
       <c r="A25" s="20"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="n">
@@ -9905,10 +9929,10 @@
       <c r="U25" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="V25" s="5" t="s">
+      <c r="V25" s="5"/>
+      <c r="W25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
@@ -9937,43 +9961,43 @@
   </sheetPr>
   <dimension ref="A1:AF36"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I3" activeCellId="0" pane="topLeft" sqref="I3"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A25" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="X37" activeCellId="0" pane="topLeft" sqref="X37"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.07843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.36078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.2156862745098"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="5.62745098039216"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.36078431372549"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="4.36078431372549"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.5647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.11372549019608"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.4"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.25098039215686"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.83529411764706"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.7450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -11226,8 +11250,11 @@
       <c r="W35" s="0" t="n">
         <v>47</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
+      <c r="X35" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="36">
       <c r="A36" s="20"/>
       <c r="B36" s="5" t="n">
         <v>2</v>
@@ -11274,10 +11301,10 @@
         <v>1</v>
       </c>
       <c r="V36" s="5"/>
-      <c r="W36" s="5" t="s">
+      <c r="W36" s="5"/>
+      <c r="X36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
@@ -11309,43 +11336,39 @@
   </sheetPr>
   <dimension ref="A1:AF45"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="W46" activeCellId="0" pane="topLeft" sqref="W46"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="I60" activeCellId="0" pane="topLeft" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.3843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.51764705882353"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.51764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.07450980392157"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.07450980392157"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.3843137254902"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.22745098039216"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.66274509803922"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.3843137254902"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.66274509803922"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.5647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.61176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.83529411764706"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.98823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="4.61176470588235"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="4.9921568627451"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.61176470588235"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="4.2156862745098"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="4.61176470588235"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.7450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12485,8 +12508,11 @@
       <c r="W44" s="0" t="n">
         <v>48</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
+      <c r="X44" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="45">
       <c r="A45" s="20"/>
       <c r="B45" s="5" t="n">
         <v>2</v>
@@ -12526,13 +12552,15 @@
       <c r="S45" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5" t="s">
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X45" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
@@ -12563,43 +12591,39 @@
   </sheetPr>
   <dimension ref="A1:AF66"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="W67" activeCellId="0" pane="topLeft" sqref="W67"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A34" view="normal" windowProtection="false" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100">
+      <selection activeCell="X67" activeCellId="0" pane="topLeft" sqref="X67"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.3843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.95294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="3.51764705882353"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.51764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.07450980392157"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.24313725490196"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.12941176470588"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="3.07450980392157"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="3.3843137254902"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.08627450980392"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="3.22745098039216"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.8"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="3.66274509803922"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="3.3843137254902"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.66274509803922"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.5647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.2156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.9921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.98823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.61176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.61176470588235"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.61176470588235"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.9921568627451"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="0" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="4.08627450980392"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="4.61176470588235"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.7450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -14351,8 +14375,11 @@
       <c r="W65" s="0" t="n">
         <v>52</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
+      <c r="X65" s="0" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="66">
       <c r="A66" s="20"/>
       <c r="B66" s="5" t="n">
         <v>1</v>
@@ -14390,19 +14417,19 @@
       <c r="Q66" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
       <c r="U66" s="5" t="n">
         <v>1</v>
       </c>
       <c r="V66" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="W66" s="5" t="s">
+      <c r="W66" s="5"/>
+      <c r="X66" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="5"/>

--- a/MakeMoney/Thong_Ke/xls/Cau_T(2).xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cau_T(2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="651" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="593" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="50">
   <si>
     <t>Cau so 10</t>
   </si>
@@ -323,7 +323,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -422,12 +422,6 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="8" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -512,9 +506,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.6274509803922"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="17.8352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.8901960784314"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="17.9254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -669,135 +663,135 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="V30" activeCellId="0" pane="topLeft" sqref="V30"/>
+      <selection activeCell="X31" activeCellId="0" pane="topLeft" sqref="X31"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.85098039215686"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.0078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.63921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.23137254901961"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.63921568627451"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="4.63921568627451"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="3.85098039215686"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="0" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.27450980392157"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.8352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.87058823529412"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.65882352941177"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.25098039215686"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.65882352941177"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.65882352941177"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.87058823529412"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.29803921568627"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.9254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
+      <c r="B1" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="n">
+      <c r="D1" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="n">
+      <c r="E1" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="n">
+      <c r="F1" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="n">
+      <c r="G1" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="n">
+      <c r="H1" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="n">
+      <c r="I1" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="n">
+      <c r="J1" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="n">
+      <c r="K1" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="n">
+      <c r="L1" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="n">
+      <c r="M1" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="n">
+      <c r="N1" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="n">
+      <c r="O1" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="n">
+      <c r="P1" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="n">
+      <c r="Q1" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="n">
+      <c r="R1" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="n">
+      <c r="S1" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="n">
+      <c r="T1" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="n">
+      <c r="U1" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="n">
+      <c r="V1" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="n">
+      <c r="W1" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="n">
+      <c r="X1" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="0" t="n">
+      <c r="Y1" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="n">
+      <c r="AA1" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="n">
+      <c r="AB1" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="n">
+      <c r="AC1" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="n">
+      <c r="AD1" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="n">
+      <c r="AE1" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="n">
+      <c r="AF1" s="5" t="n">
         <v>31</v>
       </c>
     </row>
@@ -808,65 +802,65 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="6"/>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30" t="n">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="U4" s="30" t="n">
+      <c r="U4" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="V4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="X4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="6" t="n">
+      <c r="V4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="28"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="15"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="6">
       <c r="A6" s="2" t="s">
@@ -875,154 +869,154 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="6"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
-      <c r="B9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="B9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="R9" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="S9" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="T9" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="U9" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="V9" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="W9" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="X9" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="Y9" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z9" s="0" t="n">
+      <c r="Y9" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z9" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="AA9" s="0" t="n">
+      <c r="AA9" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="AB9" s="0" t="n">
+      <c r="AB9" s="5" t="n">
         <v>27</v>
       </c>
-      <c r="AC9" s="0" t="n">
+      <c r="AC9" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="AD9" s="0" t="n">
+      <c r="AD9" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="AE9" s="0" t="n">
+      <c r="AE9" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="AF9" s="0" t="n">
+      <c r="AF9" s="5" t="n">
         <v>31</v>
       </c>
     </row>
@@ -1033,63 +1027,63 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="6"/>
-      <c r="B11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30" t="n">
+      <c r="B11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="AB11" s="30" t="n">
+      <c r="AB11" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="AC11" s="30" t="n">
+      <c r="AC11" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="AD11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
+      <c r="AD11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="13">
       <c r="A13" s="2" t="s">
@@ -1098,61 +1092,61 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="6"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="U14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="6" t="n">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1163,223 +1157,223 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="A17" s="22"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30" t="n">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="J17" s="30" t="n">
+      <c r="J17" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="K17" s="30" t="n">
+      <c r="K17" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="L17" s="30" t="n">
+      <c r="L17" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="M17" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="T17" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="U17" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
+      <c r="M17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="19">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF19" s="31"/>
+      <c r="AF19" s="23"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="22"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="22">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="Z22" s="0" t="n">
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="Z22" s="5" t="n">
         <v>44</v>
       </c>
-      <c r="AA22" s="0" t="n">
+      <c r="AA22" s="5" t="n">
         <v>61</v>
       </c>
-      <c r="AB22" s="0" t="n">
+      <c r="AB22" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="AC22" s="0" t="n">
+      <c r="AC22" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="AD22" s="0" t="n">
+      <c r="AD22" s="5" t="n">
         <v>30</v>
       </c>
-      <c r="AE22" s="0" t="n">
+      <c r="AE22" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="AF22" s="0" t="n">
+      <c r="AF22" s="5" t="n">
         <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="22"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="6" t="n">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="N23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30" t="n">
+      <c r="N23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1390,143 +1384,148 @@
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="5" t="n">
         <v>62</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="5" t="n">
         <v>70</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="5" t="n">
         <v>52</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="5" t="n">
         <v>69</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="5" t="n">
         <v>41</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="K25" s="5" t="n">
         <v>45</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="L25" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="M25" s="5" t="n">
         <v>59</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="N25" s="5" t="n">
         <v>95</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="O25" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="P25" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="Q25" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="R25" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="S25" s="3" t="n">
+      <c r="S25" s="24" t="n">
         <v>98</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="T25" s="5" t="n">
         <v>66</v>
       </c>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3" t="n">
+      <c r="U25" s="24"/>
+      <c r="V25" s="24" t="n">
         <v>77</v>
       </c>
-      <c r="W25" s="0" t="n">
+      <c r="W25" s="5" t="n">
         <v>88</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="X25" s="5" t="n">
         <v>77</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="26">
+      <c r="Z25" s="5" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="A26" s="22"/>
-      <c r="B26" s="30" t="n">
+      <c r="B26" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="C26" s="30" t="n">
+      <c r="C26" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="D26" s="30" t="n">
+      <c r="D26" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="E26" s="30" t="n">
+      <c r="E26" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="F26" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6" t="n">
+      <c r="F26" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="K26" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="S26" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6" t="n">
+      <c r="K26" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6" t="n">
+      <c r="V26" s="7"/>
+      <c r="W26" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="28"/>
+      <c r="Z26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1546,41 +1545,41 @@
   </sheetPr>
   <dimension ref="A1:AF62"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="P29" activeCellId="0" pane="topLeft" sqref="P29"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="Z63" activeCellId="0" pane="topLeft" sqref="Z63"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.23137254901961"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.0078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.23137254901961"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.23137254901961"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.85098039215686"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.98039215686275"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.71764705882353"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.8352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.25098039215686"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.25098039215686"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.25098039215686"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.87058823529412"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.99607843137255"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.73725490196078"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.9254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1683,7 +1682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="n">
         <v>1</v>
@@ -1758,7 +1757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="n">
         <v>1</v>
@@ -1835,7 +1834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="n">
@@ -1914,7 +1913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="n">
         <v>0</v>
@@ -1981,7 +1980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="n">
         <v>0</v>
@@ -2068,7 +2067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="A18" s="6"/>
       <c r="B18" s="7" t="n">
         <v>0</v>
@@ -2129,7 +2128,7 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2194,7 +2193,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="24">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="n">
         <v>0</v>
@@ -2279,7 +2278,7 @@
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="6"/>
       <c r="B27" s="7" t="n">
         <v>1</v>
@@ -2350,7 +2349,7 @@
         <v>44</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="n">
@@ -2425,7 +2424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
       <c r="A33" s="6"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -2564,7 +2563,7 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="39">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
       <c r="A39" s="6"/>
       <c r="B39" s="7" t="n">
         <v>1</v>
@@ -2633,7 +2632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="42">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
       <c r="A42" s="6"/>
       <c r="B42" s="7" t="n">
         <v>0</v>
@@ -2705,7 +2704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="44">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
       <c r="A44" s="6"/>
       <c r="B44" s="7" t="n">
         <v>1</v>
@@ -2786,7 +2785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="47">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
       <c r="A47" s="6"/>
       <c r="B47" s="13" t="s">
         <v>24</v>
@@ -2875,7 +2874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="50">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
       <c r="A50" s="6"/>
       <c r="B50" s="7" t="n">
         <v>1</v>
@@ -2964,7 +2963,7 @@
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="53">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
       <c r="A53" s="22"/>
       <c r="B53" s="13" t="s">
         <v>24</v>
@@ -3052,7 +3051,7 @@
       </c>
       <c r="AF55" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="56">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
       <c r="A56" s="22"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7" t="n">
@@ -3182,7 +3181,7 @@
         <v>71</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="59">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
       <c r="A59" s="22"/>
       <c r="B59" s="7" t="n">
         <v>1</v>
@@ -3323,8 +3322,11 @@
       <c r="X61" s="5" t="n">
         <v>97</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="62">
+      <c r="Z61" s="5" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="62">
       <c r="A62" s="22"/>
       <c r="B62" s="21"/>
       <c r="C62" s="7" t="n">
@@ -3372,7 +3374,9 @@
       <c r="Y62" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Z62" s="7"/>
+      <c r="Z62" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="AA62" s="7"/>
       <c r="AB62" s="7"/>
       <c r="AC62" s="7"/>
@@ -3402,41 +3406,41 @@
   </sheetPr>
   <dimension ref="A1:AF33"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A16" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="X36" activeCellId="0" pane="topLeft" sqref="X36"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="AA37" activeCellId="0" pane="topLeft" sqref="AA37"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.85098039215686"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.65098039215686"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.51764705882353"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.79607843137255"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.65098039215686"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.65098039215686"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.13333333333333"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.8352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.87843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.54509803921569"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.82352941176471"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.67843137254902"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.9254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -4429,6 +4433,9 @@
       <c r="Y32" s="5" t="n">
         <v>26</v>
       </c>
+      <c r="Z32" s="5" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
       <c r="A33" s="22"/>
@@ -4479,10 +4486,10 @@
       </c>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
-      <c r="Y33" s="7" t="s">
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
       <c r="AB33" s="7"/>
       <c r="AC33" s="7"/>
@@ -4513,40 +4520,40 @@
   <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="AB31" activeCellId="0" pane="topLeft" sqref="AB31"/>
+      <selection activeCell="Z28" activeCellId="0" pane="topLeft" sqref="Z28"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.09411764705882"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.51764705882353"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.51764705882353"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.94117647058824"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.23137254901961"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.51764705882353"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.8352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.12156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.54509803921569"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.54509803921569"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.96862745098039"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.25098039215686"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.54509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.9254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5326,6 +5333,9 @@
       <c r="Y26" s="5" t="n">
         <v>56</v>
       </c>
+      <c r="Z26" s="5" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="22"/>
@@ -5380,10 +5390,12 @@
         <v>1</v>
       </c>
       <c r="X27" s="7"/>
-      <c r="Y27" s="7" t="s">
+      <c r="Y27" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
       <c r="AC27" s="7"/>
@@ -5409,43 +5421,43 @@
   </sheetPr>
   <dimension ref="A1:AF71"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="Q45" activeCellId="0" pane="topLeft" sqref="Q45"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="Z72" activeCellId="0" pane="topLeft" sqref="Z72"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.23137254901961"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.8352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.25098039215686"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.9254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -7226,6 +7238,9 @@
       <c r="Y70" s="5" t="n">
         <v>59</v>
       </c>
+      <c r="Z70" s="5" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
       <c r="A71" s="22"/>
@@ -7276,10 +7291,12 @@
         <v>1</v>
       </c>
       <c r="X71" s="7"/>
-      <c r="Y71" s="7" t="s">
+      <c r="Y71" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z71" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Z71" s="7"/>
       <c r="AA71" s="7"/>
       <c r="AB71" s="7"/>
       <c r="AC71" s="7"/>
@@ -7311,44 +7328,44 @@
   </sheetPr>
   <dimension ref="A1:AF68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="AF46" activeCellId="0" pane="topLeft" sqref="AF46"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="Z69" activeCellId="0" pane="topLeft" sqref="Z69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.0078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.85098039215686"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.71764705882353"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.66666666666667"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.8352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.87058823529412"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.73725490196078"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.69411764705882"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.9254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -7500,7 +7517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="n">
         <v>1</v>
@@ -7557,7 +7574,7 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="n">
@@ -7620,7 +7637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="6"/>
       <c r="B11" s="13" t="n">
         <v>7</v>
@@ -7687,7 +7704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="n">
         <v>1</v>
@@ -7754,7 +7771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="n">
         <v>1</v>
@@ -7819,7 +7836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="6"/>
       <c r="B20" s="13" t="n">
         <v>7</v>
@@ -7892,7 +7909,7 @@
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="6"/>
       <c r="B23" s="7" t="n">
         <v>1</v>
@@ -7959,7 +7976,7 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="n">
@@ -8028,7 +8045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="A29" s="6"/>
       <c r="B29" s="7" t="n">
         <v>1</v>
@@ -8093,7 +8110,7 @@
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
       <c r="A32" s="6"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -8160,7 +8177,7 @@
         <v>45</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="35">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="n">
@@ -8227,7 +8244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="38">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="n">
@@ -8350,7 +8367,7 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="44">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
       <c r="A44" s="6"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -8413,7 +8430,7 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="47">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7" t="n">
@@ -8480,7 +8497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="50">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -8599,7 +8616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="53">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
       <c r="A53" s="6"/>
       <c r="B53" s="13" t="n">
         <v>5</v>
@@ -8671,7 +8688,7 @@
         <v>62</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="56">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
       <c r="A56" s="6"/>
       <c r="B56" s="7" t="n">
         <v>1</v>
@@ -8750,7 +8767,7 @@
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="59">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
       <c r="A59" s="22"/>
       <c r="B59" s="7" t="n">
         <v>1</v>
@@ -8822,7 +8839,7 @@
       </c>
       <c r="AF61" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="62">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="62">
       <c r="A62" s="22"/>
       <c r="B62" s="7" t="n">
         <v>1</v>
@@ -8920,7 +8937,7 @@
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="65">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
       <c r="A65" s="22"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7" t="n">
@@ -9063,8 +9080,11 @@
       <c r="Y67" s="5" t="n">
         <v>61</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="68">
+      <c r="Z67" s="5" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="68">
       <c r="A68" s="22"/>
       <c r="B68" s="13" t="n">
         <v>7</v>
@@ -9109,10 +9129,12 @@
       <c r="X68" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="Y68" s="7" t="s">
+      <c r="Y68" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z68" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Z68" s="7"/>
       <c r="AA68" s="7"/>
       <c r="AB68" s="7"/>
       <c r="AC68" s="7"/>
@@ -9144,41 +9166,41 @@
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="X25" activeCellId="0" pane="topLeft" sqref="X25"/>
+      <selection activeCell="X27" activeCellId="0" pane="topLeft" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.90196078431373"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.63921568627451"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.75686274509804"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.10588235294118"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.63921568627451"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.23137254901961"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.10588235294118"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.63921568627451"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.8352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.65882352941177"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.77647058823529"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.65882352941177"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.25098039215686"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.65882352941177"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.9254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -9281,7 +9303,7 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="n">
         <v>1</v>
@@ -9352,7 +9374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="6"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -9417,7 +9439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="6"/>
       <c r="B10" s="21"/>
       <c r="C10" s="7" t="n">
@@ -9486,7 +9508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="n">
         <v>1</v>
@@ -9569,7 +9591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="22"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="n">
@@ -9651,7 +9673,7 @@
       </c>
       <c r="AF18" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="A19" s="22"/>
       <c r="B19" s="7" t="n">
         <v>1</v>
@@ -9781,7 +9803,7 @@
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="A22" s="22"/>
       <c r="B22" s="7" t="n">
         <v>1</v>
@@ -9934,7 +9956,7 @@
         <v>63</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="A25" s="22"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="n">
@@ -9978,8 +10000,8 @@
       </c>
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
-      <c r="X25" s="7" t="s">
-        <v>40</v>
+      <c r="X25" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
@@ -10009,42 +10031,42 @@
   <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="AE25" activeCellId="0" pane="topLeft" sqref="AE25"/>
+      <selection activeCell="Z37" activeCellId="0" pane="topLeft" sqref="Z37"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.13333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.78823529411765"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.85098039215686"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.8352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.87058823529412"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.9254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -10147,7 +10169,7 @@
         <v>45</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -10192,7 +10214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="n">
@@ -10315,7 +10337,7 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="12" s="27">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12" s="27">
       <c r="A12" s="6"/>
       <c r="B12" s="14" t="n">
         <v>7</v>
@@ -10470,7 +10492,7 @@
         <v>45</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="n">
         <v>1</v>
@@ -10636,7 +10658,7 @@
         <v>58</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="n">
@@ -10707,7 +10729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="6"/>
       <c r="B21" s="8"/>
       <c r="C21" s="7" t="n">
@@ -10784,7 +10806,7 @@
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="24">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="n">
         <v>1</v>
@@ -10867,7 +10889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="22"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -10974,7 +10996,7 @@
       </c>
       <c r="AF29" s="31"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="A30" s="22"/>
       <c r="B30" s="13" t="s">
         <v>24</v>
@@ -11144,7 +11166,7 @@
         <v>42</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
       <c r="A33" s="22"/>
       <c r="B33" s="7" t="n">
         <v>1</v>
@@ -11303,8 +11325,11 @@
       <c r="Y35" s="5" t="n">
         <v>69</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="36">
+      <c r="Z35" s="5" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
       <c r="A36" s="22"/>
       <c r="B36" s="7" t="n">
         <v>2</v>
@@ -11355,10 +11380,10 @@
       <c r="X36" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Y36" s="7" t="s">
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
       <c r="AC36" s="7"/>
@@ -11389,38 +11414,38 @@
   <dimension ref="A1:AF45"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="AF31" activeCellId="0" pane="topLeft" sqref="AF31"/>
+      <selection activeCell="Z46" activeCellId="0" pane="topLeft" sqref="Z46"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.63921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.85098039215686"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.0078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.10588235294118"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="4.63921568627451"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.63921568627451"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.23137254901961"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.63921568627451"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.8352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.65882352941177"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.87058823529412"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="4.65882352941177"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.65882352941177"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.25098039215686"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.65882352941177"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.9254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -11523,7 +11548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="n">
@@ -11586,7 +11611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="n">
         <v>1</v>
@@ -11659,7 +11684,7 @@
         <v>45</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="n">
         <v>1</v>
@@ -11722,7 +11747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="6"/>
       <c r="B14" s="8"/>
       <c r="C14" s="7" t="n">
@@ -11847,7 +11872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="n">
@@ -11916,7 +11941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="6"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -11981,7 +12006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -12149,7 +12174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="n">
         <v>1</v>
@@ -12214,7 +12239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
       <c r="A33" s="6"/>
       <c r="B33" s="7" t="n">
         <v>1</v>
@@ -12285,7 +12310,7 @@
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="36">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
       <c r="A36" s="22"/>
       <c r="B36" s="7" t="n">
         <v>1</v>
@@ -12353,7 +12378,7 @@
       </c>
       <c r="AF38" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="39">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
       <c r="A39" s="22"/>
       <c r="B39" s="7" t="n">
         <v>1</v>
@@ -12421,7 +12446,7 @@
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="42">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
       <c r="A42" s="22"/>
       <c r="B42" s="7" t="n">
         <v>1</v>
@@ -12566,8 +12591,11 @@
       <c r="Y44" s="5" t="n">
         <v>74</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="45">
+      <c r="Z44" s="5" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
       <c r="A45" s="22"/>
       <c r="B45" s="7" t="n">
         <v>2</v>
@@ -12614,10 +12642,12 @@
         <v>1</v>
       </c>
       <c r="X45" s="7"/>
-      <c r="Y45" s="7" t="s">
+      <c r="Y45" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Z45" s="7"/>
       <c r="AA45" s="7"/>
       <c r="AB45" s="7"/>
       <c r="AC45" s="7"/>
@@ -12647,38 +12677,38 @@
   <dimension ref="A1:AF66"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="AF49" activeCellId="0" pane="topLeft" sqref="AF49"/>
+      <selection activeCell="Z67" activeCellId="0" pane="topLeft" sqref="Z67"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.23137254901961"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.0078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.63921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.63921568627451"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.50980392156863"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.2078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.63921568627451"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.10588235294118"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.63921568627451"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.8352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.25098039215686"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.65882352941177"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.65882352941177"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.53333333333333"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.23529411764706"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.65882352941177"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.12549019607843"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.65882352941177"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.9254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12848,7 +12878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="n">
@@ -12917,7 +12947,7 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="n">
         <v>1</v>
@@ -12978,7 +13008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="n">
         <v>0</v>
@@ -13051,7 +13081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="n">
@@ -13128,7 +13158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="n">
         <v>1</v>
@@ -13193,7 +13223,7 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="n">
@@ -13258,7 +13288,7 @@
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="n">
@@ -13325,7 +13355,7 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="n">
         <v>1</v>
@@ -13392,7 +13422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="A28" s="6"/>
       <c r="B28" s="7" t="n">
         <v>1</v>
@@ -13467,7 +13497,7 @@
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="31">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
       <c r="A31" s="6"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -13531,7 +13561,7 @@
         <v>45</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -13596,7 +13626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="37">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
       <c r="A37" s="6"/>
       <c r="B37" s="7" t="n">
         <v>1</v>
@@ -13727,7 +13757,7 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="43">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
       <c r="A43" s="6"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -13804,7 +13834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="45">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
       <c r="A45" s="6"/>
       <c r="B45" s="7" t="n">
         <v>1</v>
@@ -13869,7 +13899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="48">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
       <c r="A48" s="6"/>
       <c r="B48" s="8"/>
       <c r="C48" s="7" t="n">
@@ -13944,7 +13974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="51">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7" t="n">
@@ -14011,7 +14041,7 @@
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="54">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -14082,7 +14112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="57">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
       <c r="A57" s="22"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7" t="n">
@@ -14148,7 +14178,7 @@
       </c>
       <c r="AF59" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="60">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="60">
       <c r="A60" s="22"/>
       <c r="B60" s="7" t="n">
         <v>1</v>
@@ -14293,7 +14323,7 @@
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="63">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="63">
       <c r="A63" s="22"/>
       <c r="B63" s="9" t="n">
         <v>1</v>
@@ -14436,8 +14466,11 @@
       <c r="Y65" s="5" t="n">
         <v>98</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="66">
+      <c r="Z65" s="5" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
       <c r="A66" s="22"/>
       <c r="B66" s="7" t="n">
         <v>1</v>
@@ -14488,10 +14521,12 @@
       <c r="X66" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Y66" s="7" t="s">
+      <c r="Y66" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z66" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Z66" s="7"/>
       <c r="AA66" s="7"/>
       <c r="AB66" s="7"/>
       <c r="AC66" s="7"/>

--- a/MakeMoney/Thong_Ke/xls/Cau_T(2).xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cau_T(2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="593" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="447" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="52">
   <si>
     <t>Cau so 10</t>
   </si>
@@ -147,6 +147,9 @@
     <t>06</t>
   </si>
   <si>
+    <t>04</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -160,6 +163,9 @@
   </si>
   <si>
     <t>T12 - 2012</t>
+  </si>
+  <si>
+    <t>07</t>
   </si>
   <si>
     <t>T12-2012</t>
@@ -506,9 +512,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.9254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.8901960784314"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="17.9254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.1529411764706"/>
+    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="18.0156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -663,41 +669,41 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="X31" activeCellId="0" pane="topLeft" sqref="X31"/>
+      <selection activeCell="AA27" activeCellId="0" pane="topLeft" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.87058823529412"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.65882352941177"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.25098039215686"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.65882352941177"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.65882352941177"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.87058823529412"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.29803921568627"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.9254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4549019607843"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.89019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.68627450980392"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.68627450980392"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.68627450980392"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.89019607843137"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="18.0156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1454,6 +1460,9 @@
       <c r="Z25" s="5" t="n">
         <v>70</v>
       </c>
+      <c r="AA25" s="5" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="A26" s="22"/>
@@ -1517,10 +1526,10 @@
       <c r="Y26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Z26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB26" s="7"/>
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
@@ -1546,40 +1555,40 @@
   <dimension ref="A1:AF62"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="Z63" activeCellId="0" pane="topLeft" sqref="Z63"/>
+      <selection activeCell="AA63" activeCellId="0" pane="topLeft" sqref="AA63"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.25098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.25098039215686"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.25098039215686"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.87058823529412"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.99607843137255"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.73725490196078"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.9254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4549019607843"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.89019607843137"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.0156862745098"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="18.0156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -2346,7 +2355,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="29">
       <c r="A29" s="33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
@@ -3325,6 +3334,9 @@
       <c r="Z61" s="5" t="n">
         <v>74</v>
       </c>
+      <c r="AA61" s="5" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="62">
       <c r="A62" s="22"/>
@@ -3374,10 +3386,12 @@
       <c r="Y62" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="Z62" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA62" s="7"/>
+      <c r="Z62" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB62" s="7"/>
       <c r="AC62" s="7"/>
       <c r="AD62" s="7"/>
@@ -3407,40 +3421,40 @@
   <dimension ref="A1:AF33"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="AA37" activeCellId="0" pane="topLeft" sqref="AA37"/>
+      <selection activeCell="AA34" activeCellId="0" pane="topLeft" sqref="AA34"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.87843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.67843137254902"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.54509803921569"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.82352941176471"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.67843137254902"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.67843137254902"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.9254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4549019607843"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.90588235294118"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.70588235294118"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.57254901960784"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.85098039215686"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.70588235294118"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.70588235294118"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="18.0156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -4436,6 +4450,9 @@
       <c r="Z32" s="5" t="n">
         <v>11</v>
       </c>
+      <c r="AA32" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
       <c r="A33" s="22"/>
@@ -4487,10 +4504,10 @@
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
-      <c r="Z33" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB33" s="7"/>
       <c r="AC33" s="7"/>
       <c r="AD33" s="7"/>
@@ -4520,40 +4537,40 @@
   <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="Z28" activeCellId="0" pane="topLeft" sqref="Z28"/>
+      <selection activeCell="AA28" activeCellId="0" pane="topLeft" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.12156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.54509803921569"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.54509803921569"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.96862745098039"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.25098039215686"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.54509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.9254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.14901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.57254901960784"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.57254901960784"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.99607843137255"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.57254901960784"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="18.0156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5181,7 +5198,7 @@
         <v>35</v>
       </c>
       <c r="AD23" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AE23" s="5" t="n">
         <v>16</v>
@@ -5335,6 +5352,9 @@
       </c>
       <c r="Z26" s="5" t="n">
         <v>24</v>
+      </c>
+      <c r="AA26" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
@@ -5393,10 +5413,12 @@
       <c r="Y27" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Z27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA27" s="7"/>
+      <c r="Z27" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB27" s="7"/>
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
@@ -5422,42 +5444,42 @@
   <dimension ref="A1:AF71"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="Z72" activeCellId="0" pane="topLeft" sqref="Z72"/>
+      <selection activeCell="AA72" activeCellId="0" pane="topLeft" sqref="AA72"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.26274509803922"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.25098039215686"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.26274509803922"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.9254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4549019607843"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="18.0156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5598,13 +5620,13 @@
         <v>5</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X3" s="26"/>
       <c r="Y3" s="26"/>
       <c r="Z3" s="26"/>
       <c r="AA3" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB3" s="16"/>
       <c r="AC3" s="16"/>
@@ -6281,7 +6303,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="35">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
@@ -7191,7 +7213,7 @@
         <v>21</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K70" s="5" t="n">
         <v>33</v>
@@ -7240,6 +7262,9 @@
       </c>
       <c r="Z70" s="5" t="n">
         <v>34</v>
+      </c>
+      <c r="AA70" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
@@ -7294,10 +7319,12 @@
       <c r="Y71" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="Z71" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA71" s="7"/>
+      <c r="Z71" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA71" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB71" s="7"/>
       <c r="AC71" s="7"/>
       <c r="AD71" s="7"/>
@@ -7329,43 +7356,43 @@
   <dimension ref="A1:AF68"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="Z69" activeCellId="0" pane="topLeft" sqref="Z69"/>
+      <selection activeCell="AA69" activeCellId="0" pane="topLeft" sqref="AA69"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.83137254901961"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.9843137254902"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.87058823529412"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.73725490196078"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.69411764705882"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.26274509803922"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.9254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4549019607843"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.85490196078431"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.01176470588235"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.89019607843137"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.76078431372549"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.72156862745098"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="18.0156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -7504,7 +7531,7 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="AA3" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB3" s="16"/>
       <c r="AC3" s="16"/>
@@ -8174,7 +8201,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="34">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
@@ -8925,7 +8952,7 @@
         <v>20</v>
       </c>
       <c r="AC64" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AD64" s="5" t="n">
         <v>14</v>
@@ -9033,7 +9060,7 @@
         <v>25</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K67" s="5" t="n">
         <v>35</v>
@@ -9082,6 +9109,9 @@
       </c>
       <c r="Z67" s="5" t="n">
         <v>34</v>
+      </c>
+      <c r="AA67" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="68">
@@ -9132,10 +9162,12 @@
       <c r="Y68" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="Z68" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA68" s="7"/>
+      <c r="Z68" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA68" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB68" s="7"/>
       <c r="AC68" s="7"/>
       <c r="AD68" s="7"/>
@@ -9166,41 +9198,41 @@
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="X27" activeCellId="0" pane="topLeft" sqref="X27"/>
+      <selection activeCell="AA27" activeCellId="0" pane="topLeft" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.65882352941177"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.77647058823529"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.12549019607843"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.65882352941177"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.25098039215686"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.12549019607843"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.65882352941177"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.9254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4549019607843"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.68627450980392"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.80392156862745"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.68627450980392"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.68627450980392"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="18.0156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -9752,7 +9784,7 @@
         <v>51</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O21" s="5" t="n">
         <v>26</v>
@@ -9953,7 +9985,16 @@
         <v>21</v>
       </c>
       <c r="X24" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y24" s="5" t="n">
         <v>63</v>
+      </c>
+      <c r="Z24" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA24" s="5" t="n">
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
@@ -9998,14 +10039,16 @@
       <c r="U25" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="7"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
+      <c r="AA25" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB25" s="7"/>
       <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
@@ -10031,42 +10074,42 @@
   <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="Z37" activeCellId="0" pane="topLeft" sqref="Z37"/>
+      <selection activeCell="AA37" activeCellId="0" pane="topLeft" sqref="AA37"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.09019607843137"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.45490196078431"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.29411764705882"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.73333333333333"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.8156862745098"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.74117647058824"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.60392156862745"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.87058823529412"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.45882352941177"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.16470588235294"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.9254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4549019607843"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.11764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.48235294117647"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.31372549019608"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.76078431372549"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.4"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.84313725490196"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.76470588235294"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.62352941176471"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.89019607843137"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.47843137254902"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.1921568627451"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.34509803921569"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="18.0156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -10166,7 +10209,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
@@ -11328,6 +11371,9 @@
       <c r="Z35" s="5" t="n">
         <v>46</v>
       </c>
+      <c r="AA35" s="5" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
       <c r="A36" s="22"/>
@@ -11381,10 +11427,10 @@
         <v>1</v>
       </c>
       <c r="Y36" s="7"/>
-      <c r="Z36" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB36" s="7"/>
       <c r="AC36" s="7"/>
       <c r="AD36" s="7"/>
@@ -11414,38 +11460,38 @@
   <dimension ref="A1:AF45"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="Z46" activeCellId="0" pane="topLeft" sqref="Z46"/>
+      <selection activeCell="AA46" activeCellId="0" pane="topLeft" sqref="AA46"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.65882352941177"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.87058823529412"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.12549019607843"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="4.65882352941177"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.65882352941177"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.25098039215686"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.65882352941177"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.9254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4549019607843"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.68627450980392"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.89019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="4.68627450980392"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.68627450980392"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.68627450980392"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="18.0156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -11681,7 +11727,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="10">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
@@ -11841,7 +11887,7 @@
         <v>18</v>
       </c>
       <c r="N17" s="32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O17" s="32"/>
       <c r="P17" s="32"/>
@@ -12594,6 +12640,9 @@
       <c r="Z44" s="5" t="n">
         <v>56</v>
       </c>
+      <c r="AA44" s="5" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
       <c r="A45" s="22"/>
@@ -12645,10 +12694,10 @@
       <c r="Y45" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Z45" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB45" s="7"/>
       <c r="AC45" s="7"/>
       <c r="AD45" s="7"/>
@@ -12677,38 +12726,38 @@
   <dimension ref="A1:AF66"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="Z67" activeCellId="0" pane="topLeft" sqref="Z67"/>
+      <selection activeCell="AA67" activeCellId="0" pane="topLeft" sqref="AA67"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.25098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.03529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.65882352941177"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.65882352941177"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.90980392156863"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.33333333333333"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.53333333333333"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.23529411764706"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.65882352941177"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.52941176470588"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.03921568627451"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.7921568627451"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.38823529411765"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.12549019607843"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.65882352941177"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="17.9254901960784"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4549019607843"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.27058823529412"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.05098039215686"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.68627450980392"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.68627450980392"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.92941176470588"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.34901960784314"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.56078431372549"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.26274509803922"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.68627450980392"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.54901960784314"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.06666666666667"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.81176470588235"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.41176470588235"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.15294117647059"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.68627450980392"/>
+    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="18.0156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12814,7 +12863,7 @@
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.75" outlineLevel="0" r="3">
       <c r="A3" s="6"/>
       <c r="B3" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -12859,13 +12908,13 @@
       </c>
       <c r="V3" s="7"/>
       <c r="W3" s="26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X3" s="26"/>
       <c r="Y3" s="26"/>
       <c r="Z3" s="26"/>
       <c r="AA3" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB3" s="16"/>
       <c r="AC3" s="16"/>
@@ -13220,7 +13269,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="19">
       <c r="A19" s="33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
@@ -13558,7 +13607,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.6" outlineLevel="0" r="33">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
@@ -13724,7 +13773,7 @@
         <v>18</v>
       </c>
       <c r="N40" s="32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O40" s="32"/>
       <c r="P40" s="32"/>
@@ -14469,6 +14518,9 @@
       <c r="Z65" s="5" t="n">
         <v>59</v>
       </c>
+      <c r="AA65" s="5" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
       <c r="A66" s="22"/>
@@ -14524,10 +14576,10 @@
       <c r="Y66" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Z66" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA66" s="7"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB66" s="7"/>
       <c r="AC66" s="7"/>
       <c r="AD66" s="7"/>

--- a/MakeMoney/Thong_Ke/xls/Cau_T(2).xlsx
+++ b/MakeMoney/Thong_Ke/xls/Cau_T(2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="447" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="4" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="616" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="CK" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="52">
   <si>
     <t>Cau so 10</t>
   </si>
@@ -512,9 +512,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0156862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.1529411764706"/>
-    <col collapsed="false" hidden="false" max="257" min="3" style="0" width="18.0156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.4156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -669,41 +667,40 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A7" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="AA27" activeCellId="0" pane="topLeft" sqref="AA27"/>
+      <selection activeCell="AC27" activeCellId="0" pane="topLeft" sqref="AC27"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.89019607843137"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.68627450980392"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.26274509803922"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.68627450980392"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.68627450980392"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.26274509803922"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.89019607843137"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.31764705882353"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="18.0156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.90588235294118"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.71372549019608"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.71372549019608"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.71372549019608"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.90588235294118"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.34509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -1463,6 +1460,12 @@
       <c r="AA25" s="5" t="n">
         <v>37</v>
       </c>
+      <c r="AB25" s="5" t="n">
+        <v>71</v>
+      </c>
+      <c r="AC25" s="5" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="A26" s="22"/>
@@ -1527,11 +1530,15 @@
         <v>0</v>
       </c>
       <c r="Z26" s="7"/>
-      <c r="AA26" s="7" t="s">
+      <c r="AA26" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB26" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
       <c r="AF26" s="15"/>
@@ -1554,41 +1561,40 @@
   </sheetPr>
   <dimension ref="A1:AF62"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="AA63" activeCellId="0" pane="topLeft" sqref="AA63"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="K77" activeCellId="0" pane="topLeft" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.36862745098039"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.26274509803922"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.26274509803922"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.89019607843137"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.0156862745098"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="18.0156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.38823529411765"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.90588235294118"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.03529411764706"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="3.78039215686274"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -3337,6 +3343,12 @@
       <c r="AA61" s="5" t="n">
         <v>47</v>
       </c>
+      <c r="AB61" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="AC61" s="5" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="62">
       <c r="A62" s="22"/>
@@ -3389,11 +3401,11 @@
       <c r="Z62" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AA62" s="7" t="s">
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="7"/>
+      <c r="AC62" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB62" s="7"/>
-      <c r="AC62" s="7"/>
       <c r="AD62" s="7"/>
       <c r="AE62" s="7"/>
       <c r="AF62" s="15"/>
@@ -3421,40 +3433,39 @@
   <dimension ref="A1:AF33"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="AA34" activeCellId="0" pane="topLeft" sqref="AA34"/>
+      <selection activeCell="AC33" activeCellId="0" pane="topLeft" sqref="AC33"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.90588235294118"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.26274509803922"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.57254901960784"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.85098039215686"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.70588235294118"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="18.0156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.94117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.37254901960784"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.6"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.87843137254902"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.73333333333333"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -4453,6 +4464,12 @@
       <c r="AA32" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="AB32" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC32" s="5" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
       <c r="A33" s="22"/>
@@ -4501,15 +4518,17 @@
       <c r="V33" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="7" t="s">
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="7"/>
       <c r="AD33" s="7"/>
       <c r="AE33" s="7"/>
       <c r="AF33" s="15"/>
@@ -4537,40 +4556,39 @@
   <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="AA28" activeCellId="0" pane="topLeft" sqref="AA28"/>
+      <selection activeCell="AC27" activeCellId="0" pane="topLeft" sqref="AC27"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.14901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.57254901960784"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.57254901960784"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="5.99607843137255"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.26274509803922"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.57254901960784"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="18.0156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6313725490196"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="6.17647058823529"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="5.6"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.45490196078431"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.6"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.6"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -5356,6 +5374,12 @@
       <c r="AA26" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="AB26" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC26" s="5" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="22"/>
@@ -5416,10 +5440,10 @@
       <c r="Z27" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="AA27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="AC27" s="7"/>
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
@@ -5443,43 +5467,42 @@
   </sheetPr>
   <dimension ref="A1:AF71"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="AA72" activeCellId="0" pane="topLeft" sqref="AA72"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="AC73" activeCellId="0" pane="topLeft" sqref="AC73"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.26274509803922"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.26274509803922"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.14509803921569"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="18.0156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="5.31764705882353"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.16470588235294"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.45490196078431"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -7266,6 +7289,12 @@
       <c r="AA70" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="AB70" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC70" s="5" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
       <c r="A71" s="22"/>
@@ -7322,11 +7351,13 @@
       <c r="Z71" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AA71" s="7" t="s">
+      <c r="AA71" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB71" s="7"/>
+      <c r="AC71" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB71" s="7"/>
-      <c r="AC71" s="7"/>
       <c r="AD71" s="7"/>
       <c r="AE71" s="7"/>
       <c r="AF71" s="15"/>
@@ -7355,44 +7386,43 @@
   </sheetPr>
   <dimension ref="A1:AF68"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="AA69" activeCellId="0" pane="topLeft" sqref="AA69"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A49" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="AC68" activeCellId="0" pane="topLeft" sqref="AC68"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.43137254901961"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.26274509803922"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.85490196078431"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="4.64705882352941"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.01176470588235"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.89019607843137"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.76078431372549"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.72156862745098"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="18.0156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.45882352941177"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="4.66666666666667"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="5.03921568627451"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.60392156862745"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.90588235294118"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="3.78039215686274"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="5.31764705882353"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -9113,6 +9143,12 @@
       <c r="AA67" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="AB67" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="AC67" s="5" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="68">
       <c r="A68" s="22"/>
@@ -9165,11 +9201,13 @@
       <c r="Z68" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="AA68" s="7" t="s">
+      <c r="AA68" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB68" s="7"/>
+      <c r="AC68" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB68" s="7"/>
-      <c r="AC68" s="7"/>
       <c r="AD68" s="7"/>
       <c r="AE68" s="7"/>
       <c r="AF68" s="15"/>
@@ -9198,41 +9236,40 @@
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="AA27" activeCellId="0" pane="topLeft" sqref="AA27"/>
+      <selection activeCell="W29" activeCellId="0" pane="topLeft" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.95686274509804"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.26274509803922"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.68627450980392"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.80392156862745"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.26274509803922"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.68627450980392"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.68627450980392"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="18.0156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.9843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.71372549019608"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.83137254901961"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.71372549019608"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.71372549019608"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.95686274509804"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -9996,6 +10033,12 @@
       <c r="AA24" s="5" t="n">
         <v>15</v>
       </c>
+      <c r="AB24" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="AC24" s="5" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="A25" s="22"/>
@@ -10046,11 +10089,13 @@
         <v>1</v>
       </c>
       <c r="Z25" s="7"/>
-      <c r="AA25" s="7" t="s">
+      <c r="AA25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
       <c r="AF25" s="15"/>
@@ -10074,42 +10119,41 @@
   <dimension ref="A1:AF36"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="AA37" activeCellId="0" pane="topLeft" sqref="AA37"/>
+      <selection activeCell="AC37" activeCellId="0" pane="topLeft" sqref="AC37"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.16862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.11764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.48235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.26274509803922"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.31372549019608"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.76078431372549"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.26274509803922"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.4"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.84313725490196"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.76470588235294"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.62352941176471"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.89019607843137"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.47843137254902"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.1921568627451"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.34509803921569"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="18.0156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="5.14509803921569"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="5.50980392156863"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.33333333333333"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="5.78823529411765"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="5.87058823529412"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="4.7921568627451"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.64705882352941"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="3.90588235294118"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="5" width="4.50588235294118"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="5.21960784313726"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="5.37254901960784"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -11374,6 +11418,12 @@
       <c r="AA35" s="5" t="n">
         <v>24</v>
       </c>
+      <c r="AB35" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC35" s="5" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
       <c r="A36" s="22"/>
@@ -11426,13 +11476,15 @@
       <c r="X36" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Y36" s="7"/>
-      <c r="Z36" s="7"/>
-      <c r="AA36" s="7" t="s">
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB36" s="7"/>
-      <c r="AC36" s="7"/>
       <c r="AD36" s="7"/>
       <c r="AE36" s="7"/>
       <c r="AF36" s="28"/>
@@ -11460,38 +11512,37 @@
   <dimension ref="A1:AF45"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="AA46" activeCellId="0" pane="topLeft" sqref="AA46"/>
+      <selection activeCell="AC45" activeCellId="0" pane="topLeft" sqref="AC45"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.68627450980392"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.89019607843137"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.26274509803922"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="4.68627450980392"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.68627450980392"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.68627450980392"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="18.0156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.71372549019608"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="3.90588235294118"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="5" width="4.71372549019608"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.71372549019608"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="5" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="5" width="4.71372549019608"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.95686274509804"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -12643,6 +12694,12 @@
       <c r="AA44" s="5" t="n">
         <v>28</v>
       </c>
+      <c r="AB44" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="AC44" s="5" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
       <c r="A45" s="22"/>
@@ -12695,11 +12752,11 @@
         <v>1</v>
       </c>
       <c r="Z45" s="7"/>
-      <c r="AA45" s="7" t="s">
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB45" s="7"/>
-      <c r="AC45" s="7"/>
       <c r="AD45" s="7"/>
       <c r="AE45" s="7"/>
       <c r="AF45" s="15"/>
@@ -12726,38 +12783,37 @@
   <dimension ref="A1:AF66"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A46" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="AA67" activeCellId="0" pane="topLeft" sqref="AA67"/>
+      <selection activeCell="AC67" activeCellId="0" pane="topLeft" sqref="AC67"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.27058823529412"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.05098039215686"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.18823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.68627450980392"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.26274509803922"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.68627450980392"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.92941176470588"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.34901960784314"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.50588235294118"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.56078431372549"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.26274509803922"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.68627450980392"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.54901960784314"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.06666666666667"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.81176470588235"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.41176470588235"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.15294117647059"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.68627450980392"/>
-    <col collapsed="false" hidden="false" max="257" min="33" style="0" width="18.0156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="4.29411764705882"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="4.07058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="4.71372549019608"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="4.71372549019608"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="4.95686274509804"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="4.36862745098039"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="4.52941176470588"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="5.58823529411765"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="4.71372549019608"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="5" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="5" width="5.09019607843137"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="5" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="5" width="4.43137254901961"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="5" width="4.16862745098039"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="5" width="4.71372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -14521,6 +14577,12 @@
       <c r="AA65" s="5" t="n">
         <v>33</v>
       </c>
+      <c r="AB65" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="AC65" s="5" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
       <c r="A66" s="22"/>
@@ -14577,11 +14639,11 @@
         <v>1</v>
       </c>
       <c r="Z66" s="7"/>
-      <c r="AA66" s="7" t="s">
+      <c r="AA66" s="7"/>
+      <c r="AB66" s="7"/>
+      <c r="AC66" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB66" s="7"/>
-      <c r="AC66" s="7"/>
       <c r="AD66" s="7"/>
       <c r="AE66" s="7"/>
       <c r="AF66" s="15"/>
